--- a/DataTables/Datas/__beans__.xlsx
+++ b/DataTables/Datas/__beans__.xlsx
@@ -1037,7 +1037,7 @@
   <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N16" sqref="A4:N16"/>
+      <selection activeCell="A4" sqref="A4:N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>

--- a/DataTables/Datas/__beans__.xlsx
+++ b/DataTables/Datas/__beans__.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17775"/>
+    <workbookView windowHeight="17655"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="26">
   <si>
     <t>##var</t>
   </si>
@@ -84,6 +84,27 @@
   </si>
   <si>
     <t>注释</t>
+  </si>
+  <si>
+    <t>TBBuffValue</t>
+  </si>
+  <si>
+    <t>buff</t>
+  </si>
+  <si>
+    <t>ValuePropertyType</t>
+  </si>
+  <si>
+    <t>值属性类型</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>值</t>
   </si>
 </sst>
 </file>
@@ -1037,7 +1058,7 @@
   <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:N16"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1129,20 +1150,32 @@
       </c>
     </row>
     <row r="4" spans="2:13">
-      <c r="B4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="M4" s="2"/>
+      <c r="B4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" t="s">
+        <v>21</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="5" spans="10:13">
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="M5" s="2"/>
-    </row>
-    <row r="6" spans="2:2">
-      <c r="B6" s="2"/>
+      <c r="J5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="13" spans="2:13">
       <c r="B13" s="3"/>

--- a/DataTables/Datas/__beans__.xlsx
+++ b/DataTables/Datas/__beans__.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17655"/>
+    <workbookView windowWidth="26280" windowHeight="17640"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="33">
   <si>
     <t>##var</t>
   </si>
@@ -105,6 +105,27 @@
   </si>
   <si>
     <t>值</t>
+  </si>
+  <si>
+    <t>TBReward</t>
+  </si>
+  <si>
+    <t>reward</t>
+  </si>
+  <si>
+    <t>itemId</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>道具id</t>
+  </si>
+  <si>
+    <t>count</t>
+  </si>
+  <si>
+    <t>道具数量</t>
   </si>
 </sst>
 </file>
@@ -117,7 +138,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -128,6 +149,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -590,137 +618,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -730,10 +758,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="22" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="22" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1058,7 +1089,7 @@
   <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="B6" sqref="B6:M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1098,13 +1129,13 @@
       <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="1" t="s">
@@ -1177,61 +1208,89 @@
         <v>25</v>
       </c>
     </row>
+    <row r="6" spans="2:13">
+      <c r="B6" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="10:13">
+      <c r="J7" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
     <row r="13" spans="2:13">
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
     </row>
     <row r="14" spans="2:13">
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="3"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
     </row>
     <row r="15" spans="2:13">
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
-      <c r="M15" s="3"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
     </row>
     <row r="16" spans="2:13">
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
-      <c r="M16" s="3"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">
